--- a/biology/Zoologie/Courlis_hudsonien/Courlis_hudsonien.xlsx
+++ b/biology/Zoologie/Courlis_hudsonien/Courlis_hudsonien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Numenius hudsonicus
-Le Courlis hudsonien (Numenius hudsonicus) est une espèce de limicole de la famille des Scolopacidae[1],[2],[3].
+Le Courlis hudsonien (Numenius hudsonicus) est une espèce de limicole de la famille des Scolopacidae.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Systématique et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cet oiseau est représenté par deux sous-espèces selon la classification de référence du Congrès ornithologique international  (version 10.1, 2020)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cet oiseau est représenté par deux sous-espèces selon la classification de référence du Congrès ornithologique international  (version 10.1, 2020) :
 Numenius hudsonicus rufiventris Vigors, 1829 : Alaska et nord-ouest du Canada ;
-Numenius hudsonicus hudsonicus Latham, 1790 : de Hudson Bay au nord-est du Canada[2].</t>
+Numenius hudsonicus hudsonicus Latham, 1790 : de Hudson Bay au nord-est du Canada.</t>
         </is>
       </c>
     </row>
